--- a/base.xlsx
+++ b/base.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="base_list_1" sheetId="1" r:id="rId1"/>
     <sheet name="base_list_2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -378,9 +378,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,7 +394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -402,11 +402,11 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <f>C2*B2</f>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -420,9 +420,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -430,7 +430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4</v>
       </c>
@@ -449,7 +449,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/base.xlsx
+++ b/base.xlsx
@@ -402,11 +402,11 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <f>C2*B2</f>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
